--- a/static/fields/drugsfda_reference.xlsx
+++ b/static/fields/drugsfda_reference.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack.finch/WebstormProjects/open.fda.gov/static/fields/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE85BCA-07AE-0744-B75D-43F5F7DE2052}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5742CBBD-CF25-8946-9DE3-7C56CD301414}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="760" windowWidth="26540" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="device_classification_fields" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="97">
   <si>
     <t>Field Name</t>
   </si>
@@ -159,9 +159,6 @@
     <t>Unique Ingredient Identifier, which is a non-proprietary, free, unique, unambiguous, non-semantic, alphanumeric identifier based on a substance’s molecular structure and/or descriptive information.</t>
   </si>
   <si>
-    <t>application_public_notes</t>
-  </si>
-  <si>
     <t>Pending.</t>
   </si>
   <si>
@@ -201,9 +198,6 @@
     <t>te_code</t>
   </si>
   <si>
-    <t>boolean</t>
-  </si>
-  <si>
     <t>The coding system for therapeutic equivalence evaluations allows users to determine whether FDA has evaluated a particular approved product as therapeutically equivalent to other pharmaceutically equivalent products (first letter) and to provide additional information on the basis of FDA's evaluations (second letter).</t>
   </si>
   <si>
@@ -258,12 +252,6 @@
     <t>A unique identifier for each submission under that application.</t>
   </si>
   <si>
-    <t>submission_property_type_code</t>
-  </si>
-  <si>
-    <t>submission_property_type_id</t>
-  </si>
-  <si>
     <t>submission_public_notes</t>
   </si>
   <si>
@@ -286,6 +274,48 @@
   </si>
   <si>
     <t>The type of the individual submission. Used in combination with submission_number.</t>
+  </si>
+  <si>
+    <t>Indicates whether the drug product is a reference drug.</t>
+  </si>
+  <si>
+    <t>Indicates whether the drug product is a reference standard.</t>
+  </si>
+  <si>
+    <t>submission_property_type</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>The code indicating the submission property type.</t>
+  </si>
+  <si>
+    <t>The id of the submission property type.</t>
+  </si>
+  <si>
+    <t>The fields indicating the property type of the submission.</t>
+  </si>
+  <si>
+    <t>application_docs</t>
+  </si>
+  <si>
+    <t>The fields application documents within the submission.</t>
+  </si>
+  <si>
+    <t>applications_doc_id</t>
+  </si>
+  <si>
+    <t>applications_doc_type</t>
+  </si>
+  <si>
+    <t>The type of the applications document.</t>
+  </si>
+  <si>
+    <t>The id of the applications document.</t>
   </si>
 </sst>
 </file>
@@ -1141,10 +1171,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1181,29 +1211,32 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B3" s="4" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1211,27 +1244,27 @@
         <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1239,55 +1272,55 @@
         <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="68" x14ac:dyDescent="0.2">
@@ -1295,13 +1328,13 @@
         <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="68" x14ac:dyDescent="0.2">
@@ -1309,55 +1342,55 @@
         <v>25</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1365,13 +1398,13 @@
         <v>25</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1379,385 +1412,427 @@
         <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="B21" s="4" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="C30" s="3" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="B31" s="4" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D31" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="C33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="C34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="4" t="s">
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="C36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="4" t="s">
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="C37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="C38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="4" t="s">
+    </row>
+    <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="C39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>86</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/static/fields/drugsfda_reference.xlsx
+++ b/static/fields/drugsfda_reference.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10314"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack.finch/WebstormProjects/open.fda.gov/static/fields/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denis.krylov/Projects/openFDA/open.fda.gov/static/fields/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5742CBBD-CF25-8946-9DE3-7C56CD301414}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A303E5-08EF-2848-A634-3BCEAC832B22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="device_classification_fields" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="95">
   <si>
     <t>Field Name</t>
   </si>
@@ -288,13 +288,7 @@
     <t>code</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>The code indicating the submission property type.</t>
-  </si>
-  <si>
-    <t>The id of the submission property type.</t>
   </si>
   <si>
     <t>The fields indicating the property type of the submission.</t>
@@ -1171,10 +1165,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1602,32 +1596,32 @@
         <v>58</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="C32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>62</v>
@@ -1641,7 +1635,7 @@
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>64</v>
@@ -1655,21 +1649,21 @@
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>66</v>
@@ -1748,7 +1742,7 @@
         <v>49</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1762,21 +1756,21 @@
         <v>3</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1784,13 +1778,13 @@
         <v>58</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1798,13 +1792,13 @@
         <v>58</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1812,26 +1806,12 @@
         <v>58</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="5" t="s">
         <v>82</v>
       </c>
     </row>
